--- a/bs4-vs-bs3.xlsx
+++ b/bs4-vs-bs3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/project/Bootstrap-4-PSD-Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Extra small</t>
   </si>
@@ -156,39 +156,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BS4 的 col-12, col-sm-12 等於 BS3 的 col-xs-12</t>
+    <t>Class prefix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BS4 在最大寬度上與 BS3 不同</t>
+    <t>Max container width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>BS4 在 &lt;768 的尺寸，多設定了一個尺寸區間 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>576px ~ 767px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>), 所以BS4針對 IPHONE5處理時，是含蓋到 575px 多了細節的空間, 而BS3是只含蓋到767px</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS4 取消內建 非常難用的Glyphicons ICON Font</t>
+    <t># 不同的部分在表格上標示紅色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +235,24 @@
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -350,10 +344,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,57 +359,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -688,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,443 +718,439 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="8" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="21">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="20" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="12" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G12" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bs4-vs-bs3.xlsx
+++ b/bs4-vs-bs3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/project/Bootstrap-4-PSD-Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imaginechiu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E926DF82-B861-F449-AEF3-E2FF6771646E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Extra small</t>
   </si>
@@ -59,9 +60,6 @@
     <t>≥1200px</t>
   </si>
   <si>
-    <t>Max container width</t>
-  </si>
-  <si>
     <t>None (auto)</t>
   </si>
   <si>
@@ -98,12 +96,6 @@
     <t># of columns</t>
   </si>
   <si>
-    <t>Gutter width</t>
-  </si>
-  <si>
-    <t>30px (15px on each side of a column)</t>
-  </si>
-  <si>
     <t>Nestable</t>
   </si>
   <si>
@@ -160,19 +152,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max container width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># 不同的部分在表格上標示紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面尺寸大小判斷(Media Query)</t>
+  </si>
+  <si>
+    <t>畫面尺寸大小判斷(Media Query)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大容器寬度(Max Container Width)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柵欄間距 (Gutter Width)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總共 30px (柵欄左右間各15px)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nestable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column ordering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +268,27 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -349,7 +385,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -362,24 +398,42 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -389,35 +443,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -430,6 +472,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,17 +742,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="2" customWidth="1"/>
     <col min="3" max="7" width="30.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
     <col min="9" max="9" width="34.5" style="2" customWidth="1"/>
@@ -718,54 +763,54 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="25" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="25" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="3"/>
@@ -773,49 +818,51 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:13" ht="25" customHeight="1">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:13" ht="25" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
@@ -823,25 +870,25 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:13" ht="25" customHeight="1">
+      <c r="A6" s="15"/>
       <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
@@ -849,179 +896,181 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:13" ht="25" customHeight="1">
+      <c r="A7" s="15"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="21">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19">
         <v>12</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+    <row r="8" spans="1:13" ht="25" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:13" ht="25" customHeight="1">
+      <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:13" ht="25" customHeight="1">
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:13" ht="25" customHeight="1">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="20"/>
+      <c r="B11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="G13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="25" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="25" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="25" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="25" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1030,108 +1079,105 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="25" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="25" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="25" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="25" customHeight="1"/>
+    <row r="24" spans="1:7" ht="25" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="25" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="25" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="25" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="25" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
@@ -1145,12 +1191,15 @@
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
